--- a/docs/Burndown.xlsx
+++ b/docs/Burndown.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t xml:space="preserve">Total</t>
   </si>
@@ -58,43 +58,109 @@
     <t xml:space="preserve">Backlog</t>
   </si>
   <si>
-    <t xml:space="preserve">Jotain</t>
+    <t xml:space="preserve">Release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elokuvan lisääminen</t>
   </si>
   <si>
     <t xml:space="preserve">Github CI</t>
   </si>
   <si>
+    <t xml:space="preserve">Virheiden hallinta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kirjanmerkin poistaminen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tietokanta</t>
   </si>
   <si>
+    <t xml:space="preserve">Tiedon rajaus (Kirjailija)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kirjanmerkin muokkaaminen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tutki UI autom. test.</t>
   </si>
   <si>
+    <t xml:space="preserve">Tiedon rajaus (ISBN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yksi listaussivu</t>
+  </si>
+  <si>
     <t xml:space="preserve">Burndown</t>
   </si>
   <si>
+    <t xml:space="preserve">Tiedon rajaus (Otsikko)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUI:n päivitys</t>
+  </si>
+  <si>
     <t xml:space="preserve">URL lisääminen</t>
   </si>
   <si>
+    <t xml:space="preserve">README</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUI:n testit</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kirja lisääminen</t>
   </si>
   <si>
+    <t xml:space="preserve">Suoritettava tiedosto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestFX:n tutkimista</t>
+  </si>
+  <si>
     <t xml:space="preserve">Suoritettava .jar</t>
   </si>
   <si>
+    <t xml:space="preserve">Tiedon rajaus (URL Otsikko)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demoon valmistautuminen</t>
+  </si>
+  <si>
     <t xml:space="preserve">GUI</t>
   </si>
   <si>
+    <t xml:space="preserve">Koodin refaktorointi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tutkiva testaaminen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tiedon näyttäminen</t>
   </si>
   <si>
+    <t xml:space="preserve">GUI:n parantelu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pelkällä nimellä lisääminen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Konfigurointi</t>
   </si>
   <si>
+    <t xml:space="preserve">Testit kirjan lisäämiselle</t>
+  </si>
+  <si>
     <t xml:space="preserve">Käyttöohje</t>
   </si>
   <si>
+    <t xml:space="preserve">Testit URLin lisäämiselle</t>
+  </si>
+  <si>
     <t xml:space="preserve">DoD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ääkkösongelman korjaus</t>
   </si>
   <si>
     <t xml:space="preserve">Gitignore</t>
@@ -110,12 +176,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -133,87 +200,11 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -221,6 +212,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -228,6 +220,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="13"/>
@@ -240,7 +233,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,50 +242,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFBCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFE2EFDA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFF8CBAD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFD9E1F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFBCC"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
@@ -304,25 +255,25 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6E0B4"/>
-        <bgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFE2EFDA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE2EFDA"/>
-        <bgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFD9E1F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC65911"/>
-        <bgColor rgb="FF996600"/>
+        <bgColor rgb="FFFF420E"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF8CBAD"/>
-        <bgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFFFE699"/>
       </patternFill>
     </fill>
     <fill>
@@ -358,7 +309,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9E1F2"/>
-        <bgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFE2EFDA"/>
       </patternFill>
     </fill>
     <fill>
@@ -368,7 +319,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -376,23 +327,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -416,76 +352,77 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -493,156 +430,83 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="20" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFD320"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF548235"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FFFCE4D6"/>
+      <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFE2EFDA"/>
+      <rgbColor rgb="FFFFFBCC"/>
+      <rgbColor rgb="FFD9E1F2"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFFF2CC"/>
+      <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFB4C6E7"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFE699"/>
+      <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFD9E1F2"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFBCC"/>
+      <rgbColor rgb="FFFFF2CC"/>
+      <rgbColor rgb="FFE2EFDA"/>
+      <rgbColor rgb="FFFFE699"/>
       <rgbColor rgb="FFC6E0B4"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFFCE4D6"/>
+      <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFF8CBAD"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF579D1C"/>
+      <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF004586"/>
-      <rgbColor rgb="FF548235"/>
+      <rgbColor rgb="FF579D1C"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FFC65911"/>
@@ -654,7 +518,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -718,6 +582,7 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -798,6 +663,7 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -841,13 +707,13 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.3</c:v>
+                  <c:v>25.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -855,8 +721,8 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="11124573"/>
-        <c:axId val="23676175"/>
+        <c:axId val="62937418"/>
+        <c:axId val="29072711"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -890,6 +756,7 @@
           </c:marker>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -930,16 +797,16 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>113</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>101.7</c:v>
+                  <c:v>58.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>101.7</c:v>
+                  <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>101.7</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -976,6 +843,7 @@
           </c:marker>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1016,7 +884,7 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>113</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>72</c:v>
@@ -1040,11 +908,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="69871314"/>
-        <c:axId val="87783079"/>
+        <c:axId val="14837386"/>
+        <c:axId val="81869913"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="11124573"/>
+        <c:axId val="62937418"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1072,14 +940,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23676175"/>
+        <c:crossAx val="29072711"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="23676175"/>
+        <c:axId val="29072711"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1094,6 +962,38 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="62937418"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="14837386"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1116,17 +1016,20 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11124573"/>
+        <c:crossAx val="81869913"/>
         <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="69871314"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="81869913"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1148,51 +1051,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87783079"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="87783079"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="69871314"/>
+        <c:crossAx val="14837386"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1250,9 +1109,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>584280</xdr:colOff>
+      <xdr:colOff>583920</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:rowOff>150480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1261,7 +1120,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
-        <a:ext cx="7317720" cy="4044600"/>
+        <a:ext cx="7310160" cy="4044240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1279,10 +1138,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y44"/>
+  <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K33" activeCellId="0" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1338,7 +1197,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5" t="n">
         <f aca="false">SUM(P2:R2)</f>
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="P2" s="5" t="n">
         <f aca="false">SUM(C24:C44)</f>
@@ -1346,11 +1205,11 @@
       </c>
       <c r="Q2" s="5" t="n">
         <f aca="false">SUM(H24:H44)</f>
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="R2" s="5" t="n">
         <f aca="false">SUM(M24:M44)</f>
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="S2" s="5"/>
     </row>
@@ -1373,19 +1232,19 @@
       <c r="N3" s="7"/>
       <c r="O3" s="7" t="n">
         <f aca="false">SUM(P3:R3)</f>
-        <v>11.3</v>
+        <v>77.5</v>
       </c>
       <c r="P3" s="7" t="n">
         <f aca="false">SUM(D24:D44)</f>
-        <v>11.3</v>
+        <v>25.5</v>
       </c>
       <c r="Q3" s="7" t="n">
         <f aca="false">SUM(I24:I44)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="R3" s="7" t="n">
         <f aca="false">SUM(N24:N44)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="S3" s="7"/>
     </row>
@@ -1488,15 +1347,15 @@
       <c r="O7" s="13"/>
       <c r="P7" s="13" t="n">
         <f aca="false">SUM(P3)</f>
-        <v>11.3</v>
+        <v>25.5</v>
       </c>
       <c r="Q7" s="13" t="n">
         <f aca="false">SUM(Q3)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="R7" s="13" t="n">
         <f aca="false">SUM(R3)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="S7" s="13"/>
     </row>
@@ -1519,19 +1378,19 @@
       <c r="N8" s="11"/>
       <c r="O8" s="11" t="n">
         <f aca="false">SUM(O2)</f>
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="P8" s="11" t="n">
         <f aca="false">SUM(P2:R2,-P3)</f>
-        <v>101.7</v>
+        <v>58.5</v>
       </c>
       <c r="Q8" s="11" t="n">
         <f aca="false">SUM(P2:R2,-P3,-Q3)</f>
-        <v>101.7</v>
+        <v>33.5</v>
       </c>
       <c r="R8" s="11" t="n">
         <f aca="false">SUM(P2:R2,-P3,-Q3, -R3)</f>
-        <v>101.7</v>
+        <v>6.5</v>
       </c>
       <c r="S8" s="11"/>
     </row>
@@ -1554,7 +1413,7 @@
       <c r="N9" s="13"/>
       <c r="O9" s="13" t="n">
         <f aca="false">SUM(O8)</f>
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="P9" s="13" t="n">
         <v>72</v>
@@ -1896,18 +1755,22 @@
       </c>
       <c r="G24" s="19"/>
       <c r="H24" s="19" t="n">
-        <v>36</v>
-      </c>
-      <c r="I24" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="I24" s="19" t="n">
+        <v>1</v>
+      </c>
       <c r="J24" s="19"/>
       <c r="K24" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L24" s="11"/>
       <c r="M24" s="11" t="n">
-        <v>36</v>
-      </c>
-      <c r="N24" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="N24" s="11" t="n">
+        <v>3</v>
+      </c>
       <c r="O24" s="11"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -1916,7 +1779,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B25" s="21"/>
       <c r="C25" s="21" t="n">
@@ -1926,46 +1789,66 @@
         <v>1</v>
       </c>
       <c r="E25" s="21"/>
-      <c r="F25" s="22"/>
+      <c r="F25" s="22" t="s">
+        <v>15</v>
+      </c>
       <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
+      <c r="H25" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="I25" s="22" t="n">
+        <v>2</v>
+      </c>
       <c r="J25" s="22"/>
-      <c r="K25" s="13"/>
+      <c r="K25" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
+      <c r="M25" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" s="13" t="n">
+        <v>3</v>
+      </c>
       <c r="O25" s="13"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="23"/>
-      <c r="Y25" s="23"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="D26" s="18"/>
+      <c r="D26" s="18" t="n">
+        <v>3</v>
+      </c>
       <c r="E26" s="18"/>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
+      <c r="H26" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="19" t="n">
+        <v>1</v>
+      </c>
       <c r="J26" s="19"/>
-      <c r="K26" s="11"/>
+      <c r="K26" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
+      <c r="M26" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="O26" s="11"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -1974,7 +1857,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="20" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B27" s="21"/>
       <c r="C27" s="21" t="n">
@@ -1984,15 +1867,27 @@
         <v>1</v>
       </c>
       <c r="E27" s="21"/>
-      <c r="F27" s="22"/>
+      <c r="F27" s="22" t="s">
+        <v>21</v>
+      </c>
       <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
+      <c r="H27" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="22" t="n">
+        <v>1</v>
+      </c>
       <c r="J27" s="22"/>
-      <c r="K27" s="13"/>
+      <c r="K27" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
+      <c r="M27" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" s="13" t="n">
+        <v>3</v>
+      </c>
       <c r="O27" s="13"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -2001,7 +1896,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="18" t="n">
@@ -2011,15 +1906,27 @@
         <v>2</v>
       </c>
       <c r="E28" s="18"/>
-      <c r="F28" s="19"/>
+      <c r="F28" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
+      <c r="H28" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="19" t="n">
+        <v>1</v>
+      </c>
       <c r="J28" s="19"/>
-      <c r="K28" s="11"/>
+      <c r="K28" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
+      <c r="M28" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" s="11" t="n">
+        <v>3</v>
+      </c>
       <c r="O28" s="11"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -2028,23 +1935,37 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="20" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="D29" s="21"/>
+      <c r="D29" s="21" t="n">
+        <v>2</v>
+      </c>
       <c r="E29" s="21"/>
-      <c r="F29" s="22"/>
+      <c r="F29" s="22" t="s">
+        <v>27</v>
+      </c>
       <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
+      <c r="H29" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="22" t="n">
+        <v>1</v>
+      </c>
       <c r="J29" s="22"/>
-      <c r="K29" s="13"/>
+      <c r="K29" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
+      <c r="M29" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" s="13" t="n">
+        <v>5</v>
+      </c>
       <c r="O29" s="13"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
@@ -2053,23 +1974,37 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="17" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="D30" s="18"/>
+      <c r="D30" s="18" t="n">
+        <v>3</v>
+      </c>
       <c r="E30" s="18"/>
-      <c r="F30" s="19"/>
+      <c r="F30" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
+      <c r="H30" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" s="19" t="n">
+        <v>3</v>
+      </c>
       <c r="J30" s="19"/>
-      <c r="K30" s="11"/>
+      <c r="K30" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
+      <c r="M30" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="O30" s="11"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -2078,7 +2013,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="20" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B31" s="21"/>
       <c r="C31" s="21" t="n">
@@ -2088,15 +2023,27 @@
         <v>1</v>
       </c>
       <c r="E31" s="21"/>
-      <c r="F31" s="22"/>
+      <c r="F31" s="22" t="s">
+        <v>33</v>
+      </c>
       <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
+      <c r="H31" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="22" t="n">
+        <v>1</v>
+      </c>
       <c r="J31" s="22"/>
-      <c r="K31" s="13"/>
+      <c r="K31" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
+      <c r="M31" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" s="13" t="n">
+        <v>2</v>
+      </c>
       <c r="O31" s="13"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -2105,23 +2052,37 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="17" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B32" s="18"/>
       <c r="C32" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="D32" s="18"/>
+      <c r="D32" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="E32" s="18"/>
-      <c r="F32" s="19"/>
+      <c r="F32" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
+      <c r="H32" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="I32" s="19" t="n">
+        <v>6</v>
+      </c>
       <c r="J32" s="19"/>
-      <c r="K32" s="11"/>
+      <c r="K32" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
+      <c r="M32" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="O32" s="11"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -2130,23 +2091,37 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="20" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="21" t="n">
         <v>6</v>
       </c>
-      <c r="D33" s="21"/>
+      <c r="D33" s="21" t="n">
+        <v>4</v>
+      </c>
       <c r="E33" s="21"/>
-      <c r="F33" s="22"/>
+      <c r="F33" s="22" t="s">
+        <v>39</v>
+      </c>
       <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
+      <c r="H33" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" s="22" t="n">
+        <v>3</v>
+      </c>
       <c r="J33" s="22"/>
-      <c r="K33" s="13"/>
+      <c r="K33" s="13" t="s">
+        <v>40</v>
+      </c>
       <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
+      <c r="M33" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" s="13" t="n">
+        <v>2</v>
+      </c>
       <c r="O33" s="13"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
@@ -2155,7 +2130,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="17" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="18" t="n">
@@ -2165,10 +2140,16 @@
         <v>4</v>
       </c>
       <c r="E34" s="18"/>
-      <c r="F34" s="19"/>
+      <c r="F34" s="19" t="s">
+        <v>42</v>
+      </c>
       <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
+      <c r="H34" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" s="19" t="n">
+        <v>2</v>
+      </c>
       <c r="J34" s="19"/>
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
@@ -2182,18 +2163,26 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="20" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B35" s="21"/>
       <c r="C35" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="D35" s="21"/>
+      <c r="D35" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="E35" s="21"/>
-      <c r="F35" s="22"/>
+      <c r="F35" s="22" t="s">
+        <v>44</v>
+      </c>
       <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
+      <c r="H35" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" s="22" t="n">
+        <v>2</v>
+      </c>
       <c r="J35" s="22"/>
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
@@ -2207,18 +2196,26 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="17" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B36" s="18"/>
       <c r="C36" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="D36" s="18"/>
+      <c r="D36" s="18" t="n">
+        <v>0.2</v>
+      </c>
       <c r="E36" s="18"/>
-      <c r="F36" s="19"/>
+      <c r="F36" s="19" t="s">
+        <v>46</v>
+      </c>
       <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
+      <c r="H36" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="19" t="n">
+        <v>1</v>
+      </c>
       <c r="J36" s="19"/>
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
@@ -2232,7 +2229,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="20" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B37" s="21"/>
       <c r="C37" s="21" t="n">
@@ -2259,7 +2256,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="17" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B38" s="18"/>
       <c r="C38" s="18" t="n">
